--- a/gameTb/agent/table/网络地址.xlsx
+++ b/gameTb/agent/table/网络地址.xlsx
@@ -9,21 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5565" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="urlMgr" sheetId="14" r:id="rId1"/>
     <sheet name="urlMgr.i" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="ssl.j" sheetId="20" state="hidden" r:id="rId3"/>
-    <sheet name="dispatchId.j" sheetId="19" state="hidden" r:id="rId4"/>
-    <sheet name="type.j" sheetId="15" state="hidden" r:id="rId5"/>
+    <sheet name="id.j" sheetId="21" r:id="rId3"/>
+    <sheet name="ssl.j" sheetId="20" state="hidden" r:id="rId4"/>
+    <sheet name="dispatchId.j" sheetId="19" state="hidden" r:id="rId5"/>
+    <sheet name="type.j" sheetId="15" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="appTypek">#REF!</definedName>
     <definedName name="dispatchIdk">dispatchId.j!$A:$A</definedName>
-    <definedName name="handleConfigk">#REF!</definedName>
-    <definedName name="isJsonk">#REF!</definedName>
-    <definedName name="operatorNamek">#REF!</definedName>
+    <definedName name="idk">id.j!$A:$A</definedName>
     <definedName name="sslk">ssl.j!$A:$A</definedName>
     <definedName name="typek">type.j!$A:$A</definedName>
   </definedNames>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>int16_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +53,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>json</t>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int8_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地址类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,6 +157,9 @@
   </si>
   <si>
     <t>没有加密</t>
+  </si>
+  <si>
+    <t>没有加密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,6 +176,41 @@
   </si>
   <si>
     <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表地址</t>
+  </si>
+  <si>
+    <t>服务器列表地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/api/server/getServerList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mOperatorName":"%1%","mVersionNo":"%2%","mClassify":"%3%"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +237,23 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="新宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -238,12 +282,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,9 +301,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,57 +585,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="100" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="8.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="37.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="76.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -592,80 +639,106 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>typek</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>dispatchIdk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>sslk</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>idk</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -685,23 +758,31 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -711,6 +792,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -725,7 +841,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -733,70 +849,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -806,6 +862,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -828,7 +944,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>

--- a/gameTb/agent/table/网络地址.xlsx
+++ b/gameTb/agent/table/网络地址.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="urlMgr" sheetId="14" r:id="rId1"/>
     <sheet name="urlMgr.i" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="id.j" sheetId="21" r:id="rId3"/>
+    <sheet name="id.j" sheetId="21" state="hidden" r:id="rId3"/>
     <sheet name="ssl.j" sheetId="20" state="hidden" r:id="rId4"/>
     <sheet name="dispatchId.j" sheetId="19" state="hidden" r:id="rId5"/>
     <sheet name="type.j" sheetId="15" state="hidden" r:id="rId6"/>
@@ -589,7 +589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
